--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/202101.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/202101.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2264,23 +2264,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2309,17 +2309,17 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2385,29 +2385,29 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,17 +2436,17 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>2</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2645,68 +2645,68 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>2</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -2784,62 +2784,62 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2893,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2911,62 +2911,62 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>2</v>
       </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3038,68 +3038,68 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ20" s="2" t="n">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -3153,80 +3153,80 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>2</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3298,28 +3298,28 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="2" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3419,34 +3419,34 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3558,28 +3558,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="2" t="n">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3679,34 +3679,34 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3730,13 +3730,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="2" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="n">
         <v>0</v>
@@ -3951,28 +3951,28 @@
         <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W27" s="2" t="n">
         <v>0</v>
@@ -3996,13 +3996,13 @@
         <v>0</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF27" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="2" t="n">
         <v>0</v>
@@ -4011,16 +4011,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ27" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="2" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>0</v>
@@ -4084,28 +4084,28 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -4129,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF28" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="2" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4211,31 +4211,31 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
@@ -4256,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -4271,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>0</v>
@@ -4344,19 +4344,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>3</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W30" s="2" t="n">
         <v>0</v>
@@ -4389,13 +4389,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="2" t="n">
         <v>0</v>
@@ -4404,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ30" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="2" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -4477,13 +4477,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -4513,16 +4513,16 @@
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
@@ -4531,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>0</v>
@@ -4604,19 +4604,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>3</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W32" s="2" t="n">
         <v>0</v>
@@ -4649,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
         <v>0</v>
@@ -4664,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ32" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="2" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -4731,19 +4731,19 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -4776,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4791,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>0</v>
@@ -4864,28 +4864,28 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>0</v>
@@ -4909,13 +4909,13 @@
         <v>0</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
         <v>0</v>
@@ -4924,16 +4924,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ34" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="2" t="inlineStr">
         <is>
@@ -4955,10 +4955,10 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4973,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -4991,28 +4991,28 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -5036,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -5051,16 +5051,16 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>0</v>
@@ -5124,28 +5124,28 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36" s="2" t="n">
         <v>0</v>
@@ -5169,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="2" t="n">
         <v>0</v>
@@ -5184,16 +5184,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ36" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="2" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -5251,28 +5251,28 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -5296,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" s="2" t="n">
         <v>0</v>
@@ -5384,28 +5384,28 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W38" s="2" t="n">
         <v>0</v>
@@ -5429,13 +5429,13 @@
         <v>0</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="2" t="n">
         <v>0</v>
@@ -5444,16 +5444,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ38" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="2" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -5511,28 +5511,28 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -5556,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
@@ -5571,16 +5571,16 @@
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
         <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J40" s="2" t="n">
         <v>0</v>
@@ -5644,28 +5644,28 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W40" s="2" t="n">
         <v>0</v>
@@ -5689,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="2" t="n">
         <v>0</v>
@@ -5704,16 +5704,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ40" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="2" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -5753,16 +5753,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -5771,28 +5771,28 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -5816,13 +5816,13 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
@@ -5831,16 +5831,16 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
         <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>0</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2" t="n">
         <v>0</v>
@@ -5904,28 +5904,28 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W42" s="2" t="n">
         <v>0</v>
@@ -5949,13 +5949,13 @@
         <v>0</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF42" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="2" t="n">
         <v>0</v>
@@ -5964,16 +5964,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ42" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="2" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -6007,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -6031,28 +6031,28 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -6076,13 +6076,13 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
@@ -6091,16 +6091,16 @@
         <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2" t="n">
         <v>0</v>
@@ -6164,28 +6164,28 @@
         <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W44" s="2" t="n">
         <v>0</v>
@@ -6209,13 +6209,13 @@
         <v>0</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF44" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="2" t="n">
         <v>0</v>
@@ -6224,16 +6224,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ44" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="2" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -6291,28 +6291,28 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" t="n">
         <v>1</v>
@@ -6336,13 +6336,13 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
         <v>0</v>
@@ -6351,16 +6351,16 @@
         <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="inlineStr">
         <is>
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>1</v>
@@ -6424,28 +6424,28 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W46" s="2" t="n">
         <v>0</v>
@@ -6469,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF46" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="2" t="n">
         <v>0</v>
@@ -6484,16 +6484,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ46" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="2" t="inlineStr">
         <is>
@@ -6533,10 +6533,10 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -6551,28 +6551,28 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -6596,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -6611,16 +6611,16 @@
         <v>0</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
         <v>0</v>
       </c>
       <c r="AL47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
@@ -6660,16 +6660,16 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>1</v>
@@ -6684,28 +6684,28 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W48" s="2" t="n">
         <v>0</v>
@@ -6726,16 +6726,16 @@
         <v>1</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF48" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="2" t="n">
         <v>0</v>
@@ -6744,16 +6744,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ48" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="2" t="inlineStr">
         <is>
@@ -6787,16 +6787,16 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -6811,28 +6811,28 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -6853,16 +6853,16 @@
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
         <v>0</v>
@@ -6871,16 +6871,16 @@
         <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ49" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
         <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="inlineStr">
         <is>
@@ -6920,16 +6920,16 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>1</v>
@@ -6944,31 +6944,31 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="n">
         <v>0</v>
@@ -6980,22 +6980,22 @@
         <v>1</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF50" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="2" t="n">
         <v>0</v>
@@ -7004,16 +7004,16 @@
         <v>0</v>
       </c>
       <c r="AI50" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ50" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="2" t="inlineStr">
         <is>
@@ -7041,22 +7041,22 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -7068,34 +7068,34 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -7107,22 +7107,22 @@
         <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" t="n">
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG51" t="n">
         <v>0</v>
@@ -7131,16 +7131,16 @@
         <v>0</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK51" t="n">
         <v>0</v>
       </c>
       <c r="AL51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" t="inlineStr">
         <is>
@@ -7180,16 +7180,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="n">
         <v>1</v>
@@ -7204,31 +7204,31 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="2" t="n">
         <v>0</v>
@@ -7240,22 +7240,22 @@
         <v>1</v>
       </c>
       <c r="AA52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF52" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="2" t="n">
         <v>0</v>
@@ -7264,16 +7264,16 @@
         <v>0</v>
       </c>
       <c r="AI52" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ52" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" s="2" t="inlineStr">
         <is>
@@ -7307,16 +7307,16 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -7328,34 +7328,34 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -7367,22 +7367,22 @@
         <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" t="n">
         <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
         <v>0</v>
@@ -7391,16 +7391,16 @@
         <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
         <v>1</v>
       </c>
       <c r="AL53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" t="inlineStr">
         <is>
@@ -7434,22 +7434,22 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="n">
         <v>1</v>
@@ -7464,31 +7464,31 @@
         <v>0</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="2" t="n">
         <v>0</v>
@@ -7500,22 +7500,22 @@
         <v>1</v>
       </c>
       <c r="AA54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF54" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="2" t="n">
         <v>0</v>
@@ -7524,16 +7524,16 @@
         <v>0</v>
       </c>
       <c r="AI54" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ54" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="2" t="inlineStr">
         <is>
@@ -7561,25 +7561,25 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7591,31 +7591,31 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -7627,22 +7627,22 @@
         <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
         <v>1</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG55" t="n">
         <v>0</v>
@@ -7651,16 +7651,16 @@
         <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK55" t="n">
         <v>1</v>
       </c>
       <c r="AL55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="inlineStr">
         <is>
@@ -7694,22 +7694,22 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7724,31 +7724,31 @@
         <v>0</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U56" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
         <v>0</v>
@@ -7760,22 +7760,22 @@
         <v>1</v>
       </c>
       <c r="AA56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="2" t="n">
         <v>0</v>
@@ -7784,16 +7784,16 @@
         <v>0</v>
       </c>
       <c r="AI56" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ56" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="2" t="inlineStr">
         <is>
@@ -7821,22 +7821,22 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -7845,37 +7845,37 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -7887,40 +7887,40 @@
         <v>1</v>
       </c>
       <c r="AA57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
         <v>1</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
         <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK57" t="n">
         <v>1</v>
       </c>
       <c r="AL57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" t="inlineStr">
         <is>
@@ -7954,22 +7954,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -7981,37 +7981,37 @@
         <v>0</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U58" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V58" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="2" t="n">
         <v>0</v>
@@ -8020,22 +8020,22 @@
         <v>1</v>
       </c>
       <c r="AA58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF58" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="2" t="n">
         <v>0</v>
@@ -8044,16 +8044,16 @@
         <v>0</v>
       </c>
       <c r="AI58" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="2" t="inlineStr">
         <is>
@@ -8081,22 +8081,22 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -8108,37 +8108,37 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
         <v>0</v>
@@ -8147,22 +8147,22 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
         <v>1</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
         <v>0</v>
@@ -8171,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK59" t="n">
         <v>1</v>
       </c>
       <c r="AL59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" t="inlineStr">
         <is>
@@ -8214,22 +8214,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8244,34 +8244,34 @@
         <v>1</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U60" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V60" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="2" t="n">
         <v>0</v>
@@ -8286,16 +8286,16 @@
         <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF60" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="2" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="AI60" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ60" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="2" t="inlineStr">
         <is>
@@ -8347,22 +8347,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8374,37 +8374,37 @@
         <v>0</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="2" t="n">
         <v>0</v>
@@ -8419,16 +8419,16 @@
         <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF61" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="2" t="n">
         <v>0</v>
@@ -8437,16 +8437,16 @@
         <v>0</v>
       </c>
       <c r="AI61" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ61" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="2" t="inlineStr">
         <is>
@@ -8480,22 +8480,22 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8507,37 +8507,37 @@
         <v>0</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U62" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V62" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="2" t="n">
         <v>0</v>
@@ -8552,16 +8552,16 @@
         <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG62" s="2" t="n">
         <v>0</v>
@@ -8570,16 +8570,16 @@
         <v>0</v>
       </c>
       <c r="AI62" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ62" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="2" t="inlineStr">
         <is>
@@ -8613,22 +8613,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1</v>
@@ -8640,37 +8640,37 @@
         <v>0</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U63" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="2" t="n">
         <v>0</v>
@@ -8685,34 +8685,34 @@
         <v>1</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ63" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="2" t="inlineStr">
         <is>
@@ -8746,22 +8746,22 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="n">
         <v>1</v>
@@ -8776,76 +8776,76 @@
         <v>2</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U64" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V64" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="Y64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AB64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG64" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ64" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="2" t="inlineStr">
         <is>
